--- a/biology/Mycologie/Laccaria_amethystina/Laccaria_amethystina.xlsx
+++ b/biology/Mycologie/Laccaria_amethystina/Laccaria_amethystina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laccaria amethystina
 Laccaria amethystina, le laccaire améthyste, est une espèce de champignons basidiomycètes saprophytes de la famille des hydnangiacées.
@@ -512,12 +524,14 @@
           <t>Nom binomial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Laccaria amethystina Cooke 1884[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Laccaria amethystina Cooke 1884
 Synonymes
 Agaricus amethysteus
-Agaricus amethystinus (Huds. 1778[3])
+Agaricus amethystinus (Huds. 1778)
 Agaricus amethystinus var. amethystinus Huds. 1778
 Agaricus lividopurpureus With. 1792
 Collybia amethystina (Huds.) Quél. 1888
@@ -554,7 +568,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyménophore (chapeau), large de 2 à 8 cm est convexe jeune, puis devient ombiliqué et étalé. De couleur violet sombre, mat, plus ou moins proche de l'améthyste qui lui a donné son nom. Hygrophane, il devient plus terne et blanchâtre au dessèchement.
 Sa marge est mince, arrondie puis droite, striée et fendillée en temps sec.
@@ -589,7 +605,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse de la fin de l'été au début de l'hiver dans les emplacements humides des bois de conifères ou de feuillus. Il est parfois aussi fréquent que l'espèce type du genre, Laccaria laccata. Il est courant dans l'hémisphère nord.
 </t>
@@ -620,10 +638,12 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un comestible honorable, aussi bon - certains disent meilleur - que le type. Il vient en abondance et ne pose (contrairement à laccata) aucun vrai problème d'identification. Le stipe fibreux et coriace n'est pas consommé[4].
-L'espèce a une forte capacité de concentration du césium 137[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un comestible honorable, aussi bon - certains disent meilleur - que le type. Il vient en abondance et ne pose (contrairement à laccata) aucun vrai problème d'identification. Le stipe fibreux et coriace n'est pas consommé.
+L'espèce a une forte capacité de concentration du césium 137.
 </t>
         </is>
       </c>
@@ -652,7 +672,9 @@
           <t>Espèces proches et confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces proches sont les autres laccaires : Laccaria laccata, Laccaria proxima etc. qui sont bruns ou orangés. Il existe également d'autres variétés de laccaires violets telles que Laccaria pumila ou Laccaria trussillata mais tous sont comestibles.
 Des débutants peuvent également le confondre avec de petits cortinaires (parfois dangereux mais jamais aussi violets), voire avec Mycena pura ou Mycena rosea qui sont beaucoup plus clairs, ont des lames plus serrées et ne présentent pas la même monochromie que l'améthyste, de plus ces mycènes ont une nette odeur de radis, ce qui évite les confusions désagréables.
@@ -684,7 +706,9 @@
           <t>Caractère hygrophane</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le laccaire améthyste est un champignon extrêmement Hygrophane, il pourra être cueilli presque blanc par temps sec et redevenir violet foncé si on le trempe dans l'eau.
 </t>
